--- a/Ephemeral Nodes.xlsx
+++ b/Ephemeral Nodes.xlsx
@@ -680,24 +680,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -710,6 +692,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -719,11 +707,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10142,7 +10142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:H174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A170" sqref="A170:A174"/>
     </sheetView>
   </sheetViews>
@@ -10574,7 +10574,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -10588,7 +10588,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
         <v>71</v>
       </c>
@@ -10600,7 +10600,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
@@ -10612,7 +10612,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="4" t="s">
         <v>72</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="4" t="s">
         <v>118</v>
       </c>
@@ -10636,7 +10636,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="5" t="s">
         <v>74</v>
       </c>
@@ -10648,7 +10648,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -10662,7 +10662,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="4" t="s">
         <v>72</v>
       </c>
@@ -10674,7 +10674,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="4" t="s">
         <v>118</v>
       </c>
@@ -10686,7 +10686,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="5" t="s">
         <v>74</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -10712,7 +10712,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="36"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="5" t="s">
         <v>74</v>
       </c>
@@ -11128,119 +11128,119 @@
       <c r="A107" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="33"/>
+      <c r="C107" s="27"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="31"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="26" t="s">
+      <c r="A109" s="31"/>
+      <c r="B109" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C109" s="27"/>
+      <c r="C109" s="29"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="26" t="s">
+      <c r="A110" s="31"/>
+      <c r="B110" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="27"/>
+      <c r="C110" s="29"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="26" t="s">
+      <c r="A111" s="31"/>
+      <c r="B111" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="27"/>
+      <c r="C111" s="29"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="26" t="s">
+      <c r="A112" s="31"/>
+      <c r="B112" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="27"/>
+      <c r="C112" s="29"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="36"/>
-      <c r="B113" s="28" t="s">
+      <c r="A113" s="32"/>
+      <c r="B113" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="29"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="31"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
-      <c r="B115" s="26" t="s">
+      <c r="A115" s="31"/>
+      <c r="B115" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C115" s="27"/>
+      <c r="C115" s="29"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="26" t="s">
+      <c r="A116" s="31"/>
+      <c r="B116" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="27"/>
+      <c r="C116" s="29"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="28" t="s">
+      <c r="A117" s="32"/>
+      <c r="B117" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="29"/>
+      <c r="C117" s="34"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="31"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="36"/>
-      <c r="B119" s="28" t="s">
+      <c r="A119" s="32"/>
+      <c r="B119" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C119" s="29"/>
+      <c r="C119" s="34"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
@@ -11630,7 +11630,7 @@
       <c r="C145" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E145" s="16" t="s">
@@ -11650,7 +11650,7 @@
       <c r="A146" s="14"/>
       <c r="B146" s="16"/>
       <c r="C146" s="14"/>
-      <c r="D146" s="24"/>
+      <c r="D146" s="37"/>
       <c r="E146" s="16"/>
       <c r="F146" s="14"/>
       <c r="G146" s="9" t="s">
@@ -11664,7 +11664,7 @@
       <c r="A147" s="14"/>
       <c r="B147" s="16"/>
       <c r="C147" s="14"/>
-      <c r="D147" s="24"/>
+      <c r="D147" s="37"/>
       <c r="E147" s="16"/>
       <c r="F147" s="14"/>
       <c r="G147" s="9" t="s">
@@ -11678,7 +11678,7 @@
       <c r="A148" s="14"/>
       <c r="B148" s="16"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="24"/>
+      <c r="D148" s="37"/>
       <c r="E148" s="16"/>
       <c r="F148" s="14"/>
       <c r="G148" s="10" t="s">
@@ -11692,7 +11692,7 @@
       <c r="A149" s="15"/>
       <c r="B149" s="16"/>
       <c r="C149" s="15"/>
-      <c r="D149" s="25"/>
+      <c r="D149" s="38"/>
       <c r="E149" s="16"/>
       <c r="F149" s="15"/>
       <c r="G149" s="11" t="s">
@@ -11712,7 +11712,7 @@
       <c r="C150" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D150" s="37" t="s">
+      <c r="D150" s="35" t="s">
         <v>56</v>
       </c>
       <c r="E150" s="16" t="s">
@@ -11732,7 +11732,7 @@
       <c r="A151" s="14"/>
       <c r="B151" s="16"/>
       <c r="C151" s="14"/>
-      <c r="D151" s="38"/>
+      <c r="D151" s="36"/>
       <c r="E151" s="16"/>
       <c r="F151" s="14"/>
       <c r="G151" s="9" t="s">
@@ -11746,7 +11746,7 @@
       <c r="A152" s="14"/>
       <c r="B152" s="16"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="38"/>
+      <c r="D152" s="36"/>
       <c r="E152" s="16"/>
       <c r="F152" s="14"/>
       <c r="G152" s="10" t="s">
@@ -11760,7 +11760,7 @@
       <c r="A153" s="14"/>
       <c r="B153" s="16"/>
       <c r="C153" s="14"/>
-      <c r="D153" s="38"/>
+      <c r="D153" s="36"/>
       <c r="E153" s="16"/>
       <c r="F153" s="14"/>
       <c r="G153" s="10" t="s">
@@ -11774,7 +11774,7 @@
       <c r="A154" s="15"/>
       <c r="B154" s="16"/>
       <c r="C154" s="15"/>
-      <c r="D154" s="38"/>
+      <c r="D154" s="36"/>
       <c r="E154" s="16"/>
       <c r="F154" s="15"/>
       <c r="G154" s="11" t="s">
@@ -11799,7 +11799,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B160" t="s">
@@ -11807,31 +11807,31 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
+      <c r="A161" s="31"/>
       <c r="B161" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
+      <c r="A162" s="31"/>
       <c r="B162" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="35"/>
+      <c r="A163" s="31"/>
       <c r="B163" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="36"/>
+      <c r="A164" s="32"/>
       <c r="B164" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="34" t="s">
+      <c r="A165" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B165" t="s">
@@ -11839,31 +11839,31 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
+      <c r="A166" s="31"/>
       <c r="B166" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
+      <c r="A167" s="31"/>
       <c r="B167" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
+      <c r="A168" s="31"/>
       <c r="B168" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="36"/>
+      <c r="A169" s="32"/>
       <c r="B169" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="34" t="s">
+      <c r="A170" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B170" t="s">
@@ -11871,25 +11871,25 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="35"/>
+      <c r="A171" s="31"/>
       <c r="B171" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
+      <c r="A172" s="31"/>
       <c r="B172" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
+      <c r="A173" s="31"/>
       <c r="B173" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="36"/>
+      <c r="A174" s="32"/>
       <c r="B174" t="s">
         <v>57</v>
       </c>
@@ -11903,6 +11903,7 @@
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="C41:C45"/>
@@ -11923,11 +11924,15 @@
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="D125:D129"/>
     <mergeCell ref="E130:E134"/>
     <mergeCell ref="A135:A139"/>
     <mergeCell ref="B135:B139"/>
     <mergeCell ref="D135:D139"/>
     <mergeCell ref="E135:E139"/>
+    <mergeCell ref="D130:D134"/>
     <mergeCell ref="F135:F139"/>
     <mergeCell ref="A140:A144"/>
     <mergeCell ref="B140:B144"/>
@@ -11942,6 +11947,9 @@
     <mergeCell ref="D150:D154"/>
     <mergeCell ref="E150:E154"/>
     <mergeCell ref="F150:F154"/>
+    <mergeCell ref="C150:C154"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="C145:C149"/>
     <mergeCell ref="A160:A164"/>
     <mergeCell ref="A165:A169"/>
     <mergeCell ref="A170:A174"/>
@@ -11954,18 +11962,10 @@
     <mergeCell ref="A118:A119"/>
     <mergeCell ref="A125:A129"/>
     <mergeCell ref="B125:B129"/>
-    <mergeCell ref="C150:C154"/>
-    <mergeCell ref="D145:D149"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B116:C116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="C145:C149"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="C125:C129"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="D36:D40"/>
     <mergeCell ref="D51:D55"/>
     <mergeCell ref="C51:C55"/>
     <mergeCell ref="C130:C134"/>
